--- a/results/accel-glmm-results/habitat/lmb/glmm_ind_effects_hab_season_lmb.xlsx
+++ b/results/accel-glmm-results/habitat/lmb/glmm_ind_effects_hab_season_lmb.xlsx
@@ -435,16 +435,16 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.608445518588367</v>
+        <v>-0.734317941686569</v>
       </c>
       <c r="F2" t="n">
-        <v>0.111192296522343</v>
+        <v>0.0908559981901698</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.47201143980427</v>
+        <v>-8.08221753449426</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0000000444956102652914</v>
+        <v>0.000000000000000635995242796327</v>
       </c>
     </row>
     <row r="3">
@@ -459,16 +459,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.361599520798422</v>
+        <v>0.430321032504187</v>
       </c>
       <c r="F3" t="n">
-        <v>0.110702678634318</v>
+        <v>0.0528291680891282</v>
       </c>
       <c r="G3" t="n">
-        <v>3.26640263143846</v>
+        <v>8.14551975867178</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00108923258743859</v>
+        <v>0.000000000000000377656166135215</v>
       </c>
     </row>
     <row r="4">
@@ -483,16 +483,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.538321508222604</v>
+        <v>0.477007183896796</v>
       </c>
       <c r="F4" t="n">
-        <v>0.10387680588123</v>
+        <v>0.0522120478110245</v>
       </c>
       <c r="G4" t="n">
-        <v>5.18230709594697</v>
+        <v>9.13596006851271</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000000219157982852426</v>
+        <v>0.0000000000000000000648289627606608</v>
       </c>
     </row>
     <row r="5">
@@ -507,16 +507,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.214701085077148</v>
+        <v>0.101955562126693</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0807093042724461</v>
+        <v>0.0500936631602483</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.66017762155888</v>
+        <v>2.03529859256928</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0078099452549099</v>
+        <v>0.041820837711279</v>
       </c>
     </row>
     <row r="6">
@@ -531,16 +531,16 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0628513023634677</v>
+        <v>-0.0576262458677776</v>
       </c>
       <c r="F6" t="n">
-        <v>0.014988602034581</v>
+        <v>0.00919657263136726</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.19327314304964</v>
+        <v>-6.26605673413905</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0000274958036206994</v>
+        <v>0.000000000370305464104952</v>
       </c>
     </row>
     <row r="7">
@@ -557,7 +557,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>0.414963042283294</v>
+        <v>0.355007925948079</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>

--- a/results/accel-glmm-results/habitat/lmb/glmm_ind_effects_hab_season_lmb.xlsx
+++ b/results/accel-glmm-results/habitat/lmb/glmm_ind_effects_hab_season_lmb.xlsx
@@ -435,16 +435,16 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.734317941686569</v>
+        <v>-0.711074173183429</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0908559981901698</v>
+        <v>0.0899049022043186</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.08221753449426</v>
+        <v>-7.90918132103004</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000000000000000635995242796327</v>
+        <v>0.00000000000000259087022348122</v>
       </c>
     </row>
     <row r="3">
@@ -459,16 +459,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.430321032504187</v>
+        <v>0.40940071901024</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0528291680891282</v>
+        <v>0.0520643584448633</v>
       </c>
       <c r="G3" t="n">
-        <v>8.14551975867178</v>
+        <v>7.86335856695131</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000000000000000377656166135215</v>
+        <v>0.00000000000000373968542593598</v>
       </c>
     </row>
     <row r="4">
@@ -483,16 +483,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.477007183896796</v>
+        <v>0.470594597278706</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0522120478110245</v>
+        <v>0.0512157161898346</v>
       </c>
       <c r="G4" t="n">
-        <v>9.13596006851271</v>
+        <v>9.18848026130133</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0000000000000000000648289627606608</v>
+        <v>0.0000000000000000000398430386407911</v>
       </c>
     </row>
     <row r="5">
@@ -507,16 +507,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.101955562126693</v>
+        <v>0.0898804586003665</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0500936631602483</v>
+        <v>0.0484139752645723</v>
       </c>
       <c r="G5" t="n">
-        <v>2.03529859256928</v>
+        <v>1.85649821377378</v>
       </c>
       <c r="H5" t="n">
-        <v>0.041820837711279</v>
+        <v>0.0633825773890801</v>
       </c>
     </row>
     <row r="6">
@@ -531,16 +531,16 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0576262458677776</v>
+        <v>-0.0511940379698996</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00919657263136726</v>
+        <v>0.00881145898349069</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.26605673413905</v>
+        <v>-5.80993886095569</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000000000370305464104952</v>
+        <v>0.00000000624956612293004</v>
       </c>
     </row>
     <row r="7">
@@ -557,7 +557,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>0.355007925948079</v>
+        <v>0.352152813946055</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
